--- a/results.xlsx
+++ b/results.xlsx
@@ -34,7 +34,7 @@
     <t>1299,6229102799234</t>
   </si>
   <si>
-    <t>[0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, -0.0, 0.0, -0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, -0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 1.0, -0.0, 1.0, 1.0, 0.0, 0.0, 1.0]</t>
+    <t>[1, 2, 6, 7, 9, 11, 12, 18, 20, 23, 24, 25, 28, 29, 30, 33, 34, 36, 37, 40]</t>
   </si>
   <si>
     <t>Medium_46_23_310.521.json</t>
@@ -43,7 +43,7 @@
     <t>1018,3022757744885</t>
   </si>
   <si>
-    <t>[1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
+    <t>[0, 4, 10, 14, 18, 19, 20, 28, 29, 31, 33, 34, 37, 39, 40, 42]</t>
   </si>
   <si>
     <t>Medium_57_12_825.688.json</t>
@@ -52,7 +52,7 @@
     <t>2036,387233388944</t>
   </si>
   <si>
-    <t>[1.0, -0.0, -0.0, 1.0, -0.0, 1.0, 1.0, -0.0, 1.0, 1.0, 1.0, -0.0, 1.0, -0.0, 1.0, 1.0, -0.0, 1.0, -0.0, 1.0, 1.0, -0.0, -0.0, -0.0, 1.0, 1.0, 1.0, 1.0, 1.0, -0.0, -0.0, 0.0, 1.0, -0.0, -0.0, 1.0, 1.0, -0.0, -0.0, 1.0, 1.0, 1.0, 1.0, -0.0, 0.0, 0.0, -0.0, 1.0, 1.0, -0.0, 1.0, -0.0, -0.0, 1.0, 1.0, 1.0, -0.0]</t>
+    <t>[0, 3, 5, 6, 8, 9, 10, 12, 14, 15, 17, 19, 20, 24, 25, 26, 27, 28, 32, 35, 36, 39, 40, 41, 42, 47, 48, 50, 53, 54, 55]</t>
   </si>
   <si>
     <t>Medium_62_48_363.325.json</t>
@@ -61,7 +61,7 @@
     <t>1303,8531334498039</t>
   </si>
   <si>
-    <t>[0.0, -0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, -0.0, 0.0, -0.0, 1.0, 1.0, -0.0, -0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, -0.0, 1.0, 0.0, 1.0, 0.0, -0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, -0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0]</t>
+    <t>[7, 9, 10, 11, 14, 23, 24, 30, 31, 33, 36, 38, 44, 45, 51, 57, 59, 60]</t>
   </si>
   <si>
     <t>Medium_62_8_494.592.json</t>
@@ -70,7 +70,7 @@
     <t>1996,3254571067018</t>
   </si>
   <si>
-    <t>[1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0]</t>
+    <t>[0, 2, 4, 5, 6, 7, 8, 9, 14, 16, 17, 18, 19, 22, 24, 27, 30, 32, 35, 36, 38, 41, 42, 47, 48, 50, 51, 53, 54, 55, 60]</t>
   </si>
   <si>
     <t>Medium_65_30_526.375.json</t>
@@ -79,7 +79,7 @@
     <t>1950,9944853964178</t>
   </si>
   <si>
-    <t>[0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, -0.0, -0.0, 1.0, 1.0, 0.0, -0.0, 1.0, 1.0, 0.0, -3.0808688933348094e-15, 1.0, 0.0, 1.0, 0.0, -0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, -0.0, 0.0, 1.0, 1.0, -0.0, 0.0, 1.0, -0.0, -0.0, 1.0, 1.0, -1.0547118733938987e-15, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, -0.0, -0.0, 1.0, -0.0, -0.0, 0.0, 1.0, 0.0, -0.0, -0.0, 0.0, 0.0, 1.0, 1.0, -0.0]</t>
+    <t>[1, 2, 4, 7, 10, 11, 14, 15, 18, 20, 24, 25, 26, 27, 28, 30, 34, 35, 38, 41, 42, 45, 48, 49, 52, 56, 62, 63]</t>
   </si>
   <si>
     <t>Medium_73_25_398.109.json</t>
@@ -88,7 +88,7 @@
     <t>2165,789613434708</t>
   </si>
   <si>
-    <t>[1.0, 0.0, 1.0, 0.0, -0.0, -0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, -0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, -0.0, 0.0, 0.0, 1.0, 0.0, 0.0, -0.0, 0.0, 1.0, -0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, -0.0, -0.0, 1.0, -0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, -0.0, 1.0, -0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, -0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, -0.0, 0.0, 1.0, 1.0]</t>
+    <t>[0, 2, 6, 9, 10, 11, 14, 15, 16, 17, 21, 25, 30, 33, 34, 35, 36, 37, 41, 43, 45, 50, 53, 55, 56, 61, 63, 64, 66, 67, 71, 72]</t>
   </si>
   <si>
     <t>Medium_73_26_574.473.json</t>
@@ -97,7 +97,7 @@
     <t>2161,712960410249</t>
   </si>
   <si>
-    <t>[0.0, 1.0, 1.0, -0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, -0.0, -0.0, 1.0, 0.0, 0.0, -0.0, 0.0, 0.0, 1.0, 1.0, 1.0, -0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, -0.0, 1.0, 0.0, 1.0, -0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
+    <t>[1, 2, 6, 7, 9, 10, 17, 23, 24, 25, 27, 29, 35, 37, 38, 40, 42, 44, 46, 48, 50, 52, 53, 56, 57, 59, 60, 61, 63, 64, 65, 67, 69]</t>
   </si>
   <si>
     <t>Medium_82_28_733.967.json</t>
@@ -106,7 +106,7 @@
     <t>2199,3159841910165</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 0.0, 1.0, -0.0, 0.0, -0.0, 1.0, 0.0, 1.0, -0.0, -0.0, 1.0, -0.0, 1.0, 1.0, 1.0, 0.0, 1.0, -0.0, 0.0, 0.0, -0.0, 1.0, 0.0, -0.0, -0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, -0.0, 1.0, 1.0, 1.0, 0.0, 1.0, -0.0, 0.0, -0.0, -0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, -0.0, 0.0, 0.0, -0.0, 1.0, 0.0, 1.0, 1.0, 0.0, -0.0, -0.0, 0.0, -0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, -0.0, 1.0, 0.0, 1.0, -0.0, 0.0, -0.0]</t>
+    <t>[0, 1, 3, 7, 9, 12, 14, 15, 16, 18, 23, 29, 32, 33, 35, 36, 37, 39, 46, 47, 49, 50, 53, 54, 55, 60, 62, 63, 69, 70, 71, 72, 73, 76, 78]</t>
   </si>
   <si>
     <t>Medium_94_35_672.846.json</t>
@@ -115,7 +115,7 @@
     <t>2916,8427204892814</t>
   </si>
   <si>
-    <t>[-0.0, 1.0, -0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, -0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 1.0, -0.0, 0.0, 1.0, 1.0, 1.0, -0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, -0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, -0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, -0.0, 0.0, 0.0, 1.0, -0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
+    <t>[1, 3, 5, 8, 9, 10, 11, 13, 15, 16, 19, 20, 22, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 35, 38, 39, 40, 48, 49, 52, 58, 60, 65, 67, 68, 73, 75, 79, 80, 81, 82, 83, 84, 86, 88, 90]</t>
   </si>
   <si>
     <t>Small_10_2_58.929.json</t>
@@ -124,7 +124,7 @@
     <t>295,59806207502123</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 1.0, 1.0, -0.0, 1.0, 1.0, -0.0, 0.0, -0.0]</t>
+    <t>[2, 3, 5, 6]</t>
   </si>
   <si>
     <t>Small_19_5_221.254.json</t>
@@ -133,7 +133,7 @@
     <t>736,8512099374793</t>
   </si>
   <si>
-    <t>[-0.0, 1.0, -0.0, 1.0, 1.0, -0.0, 1.0, 1.0, -0.0, 1.0, -0.0, -0.0, 1.0, 1.0, -0.0, 1.0, 1.0, 1.0, -0.0]</t>
+    <t>[1, 3, 4, 6, 7, 9, 12, 13, 15, 16, 17]</t>
   </si>
   <si>
     <t>Small_26_1_176.007.json</t>
@@ -142,7 +142,7 @@
     <t>769,2370898060819</t>
   </si>
   <si>
-    <t>[1.0, -0.0, -0.0, 0.0, 0.0, -0.0, -0.0, 0.0, 1.0, -0.0, 1.0, 1.0, -0.0, 1.0, 0.0, 1.0, -0.0, 1.0, -0.0, -0.0, 0.0, -0.0, 1.0, 0.0, 1.0, 1.0]</t>
+    <t>[0, 8, 10, 11, 13, 15, 17, 22, 24, 25]</t>
   </si>
   <si>
     <t>Small_26_6_183.787.json</t>
@@ -151,7 +151,7 @@
     <t>622,6117068266558</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
+    <t>[2, 3, 5, 9, 10, 11, 14, 16, 17, 22]</t>
   </si>
   <si>
     <t>Small_28_3_268.002.json</t>
@@ -160,7 +160,7 @@
     <t>764,5879460614664</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
+    <t>[0, 1, 5, 6, 8, 9, 10, 12, 13, 18, 19, 25]</t>
   </si>
   <si>
     <t>Small_32_2_203.45.json</t>
@@ -169,7 +169,7 @@
     <t>1019,3953081641615</t>
   </si>
   <si>
-    <t>[1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
+    <t>[0, 5, 6, 7, 10, 11, 13, 14, 16, 17, 19, 23, 24, 29]</t>
   </si>
   <si>
     <t>Small_36_6_199.974.json</t>
@@ -178,7 +178,7 @@
     <t>1312,5469282347735</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 1.0, 1.0, -0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 1.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
+    <t>[3, 4, 6, 9, 10, 11, 12, 14, 15, 19, 20, 22, 26, 28, 29, 30, 33]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.2268979549407959</v>
+        <v>0.2792248725891113</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.06682085990905762</v>
+        <v>0.09585452079772949</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.1675510406494141</v>
+        <v>0.2002952098846436</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -601,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.05584931373596191</v>
+        <v>0.08182907104492188</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.2393596172332764</v>
+        <v>0.3172636032104492</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.08976149559020996</v>
+        <v>0.1476590633392334</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -643,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.1506001949310303</v>
+        <v>0.218604564666748</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>1.722176074981689</v>
+        <v>1.224130153656006</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>0.280250072479248</v>
+        <v>0.3918073177337646</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -685,7 +685,7 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>0.2482450008392334</v>
+        <v>0.3450753688812256</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -699,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>0.002992153167724609</v>
+        <v>0.00303339958190918</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -713,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.02985787391662598</v>
+        <v>0.04119038581848145</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -727,7 +727,7 @@
         <v>41</v>
       </c>
       <c r="C14">
-        <v>0.01795148849487305</v>
+        <v>0.01599216461181641</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -741,7 +741,7 @@
         <v>44</v>
       </c>
       <c r="C15">
-        <v>0.02892231941223145</v>
+        <v>0.0219881534576416</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -755,7 +755,7 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>0.06094551086425781</v>
+        <v>0.07575511932373047</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>0.0109713077545166</v>
+        <v>0.01056241989135742</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -783,7 +783,7 @@
         <v>53</v>
       </c>
       <c r="C18">
-        <v>0.07002067565917969</v>
+        <v>0.073455810546875</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
